--- a/fund.xlsx
+++ b/fund.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I542388\Documents\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DED77E-AB1C-4F94-97EE-7C34A62763A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D756DDAB-38F5-4633-AB99-DF35A12D9BDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,40 +27,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>易方达蓝筹精选混合（005827）</t>
-  </si>
-  <si>
-    <t>JPY171</t>
-  </si>
-  <si>
-    <t>JPX203</t>
-  </si>
-  <si>
-    <t>JPZ539</t>
-  </si>
-  <si>
     <t>161005</t>
   </si>
   <si>
-    <t>JSY302</t>
-  </si>
-  <si>
-    <t>JPR132</t>
-  </si>
-  <si>
-    <t>兴全合润分级混合（163406）</t>
-  </si>
-  <si>
-    <t>富国天惠成长混合(LOF)A（161005）</t>
-  </si>
-  <si>
-    <t>中欧医疗健康混合C（003096）</t>
-  </si>
-  <si>
-    <t>银河创新混合（519674）</t>
-  </si>
-  <si>
-    <t>融通新能源汽车主题精选灵活配置混合A（005668）</t>
+    <t>005827</t>
+  </si>
+  <si>
+    <t>易方达蓝筹精选混合</t>
+  </si>
+  <si>
+    <t>兴全合润分级混合</t>
+  </si>
+  <si>
+    <t>富国天惠成长混合(LOF)A</t>
+  </si>
+  <si>
+    <t>中欧医疗健康混合C</t>
+  </si>
+  <si>
+    <t>银河创新混合</t>
+  </si>
+  <si>
+    <t>融通新能源汽车主题精选灵活配置混合A</t>
+  </si>
+  <si>
+    <t>005668</t>
+  </si>
+  <si>
+    <t>003096</t>
+  </si>
+  <si>
+    <t>163406</t>
+  </si>
+  <si>
+    <t>519674</t>
   </si>
 </sst>
 </file>
@@ -382,7 +382,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -392,7 +392,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -400,42 +400,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/fund.xlsx
+++ b/fund.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I542388\Documents\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D756DDAB-38F5-4633-AB99-DF35A12D9BDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645CE812-F9E9-4140-8482-233DC7C8054A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>中欧医疗健康混合C</t>
   </si>
   <si>
-    <t>银河创新混合</t>
-  </si>
-  <si>
     <t>融通新能源汽车主题精选灵活配置混合A</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>519674</t>
+  </si>
+  <si>
+    <t>银河创新成长混合</t>
   </si>
 </sst>
 </file>
@@ -382,7 +382,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -403,7 +403,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -419,23 +419,23 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
